--- a/Opgaven.xlsx
+++ b/Opgaven.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jos\Desktop\Oefsuggest\Oefening-suggest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7911F9-5152-4267-A146-29D726482C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319FEFF-4639-492E-949D-A90F24266006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -897,7 +897,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,9 +926,21 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,23 +949,23 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F52" ca="1" si="0">SUM(B3:E3)</f>
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,23 +975,23 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:E52" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>256</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -989,23 +1001,23 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1015,23 +1027,23 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>259</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,23 +1053,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1067,23 +1079,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>118</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,23 +1105,23 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,23 +1131,23 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,23 +1157,23 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,23 +1183,23 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,23 +1209,23 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,23 +1235,23 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,23 +1261,23 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,23 +1287,23 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,23 +1313,23 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1327,23 +1339,23 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,23 +1365,23 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,23 +1391,23 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,23 +1417,23 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,23 +1443,23 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1457,23 +1469,23 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,23 +1495,23 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,23 +1521,23 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,23 +1547,23 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1561,23 +1573,23 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,23 +1599,23 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,23 +1625,23 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>226</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,23 +1651,23 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1665,23 +1677,23 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,23 +1703,23 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1717,23 +1729,23 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,23 +1755,23 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,23 +1781,23 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,23 +1807,23 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,23 +1833,23 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,23 +1859,23 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,23 +1885,23 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,23 +1911,23 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="0"/>
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,23 +1937,23 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,23 +1963,23 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="1"/>
         <v>63</v>
       </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
-      </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,23 +1989,23 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,23 +2015,23 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2029,23 +2041,23 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>368</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,23 +2067,23 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,23 +2093,23 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2107,23 +2119,23 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2133,23 +2145,23 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,23 +2171,23 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2185,23 +2197,23 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2211,23 +2223,23 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
